--- a/summary_file_FY2022_withTotals.xlsx
+++ b/summary_file_FY2022_withTotals.xlsx
@@ -14843,7 +14843,7 @@
         <v>32</v>
       </c>
       <c r="C721" t="n">
-        <v>1897.14</v>
+        <v>1676.32</v>
       </c>
     </row>
     <row r="722">
@@ -15085,7 +15085,7 @@
         <v>25</v>
       </c>
       <c r="C743" t="n">
-        <v>93027.93</v>
+        <v>92807.11</v>
       </c>
     </row>
     <row r="744">
@@ -15184,7 +15184,7 @@
         <v>32</v>
       </c>
       <c r="C752" t="n">
-        <v>1441.11</v>
+        <v>1422.14</v>
       </c>
     </row>
     <row r="753">
@@ -15382,7 +15382,7 @@
         <v>50</v>
       </c>
       <c r="C770" t="n">
-        <v>2250.39</v>
+        <v>1879.3</v>
       </c>
     </row>
     <row r="771">
@@ -15426,7 +15426,7 @@
         <v>25</v>
       </c>
       <c r="C774" t="n">
-        <v>102219.16</v>
+        <v>101829.1</v>
       </c>
     </row>
     <row r="775">
@@ -15593,58 +15593,58 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B10" t="n">
         <v>2.3</v>
       </c>
       <c r="C10" t="n">
-        <v>34.07</v>
+        <v>4.72</v>
       </c>
       <c r="D10" t="n">
-        <v>7.24</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="C11" t="n">
-        <v>4.72</v>
+        <v>7.21</v>
       </c>
       <c r="D11" t="n">
-        <v>0.44</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B12" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>7.21</v>
+        <v>-0.83</v>
       </c>
       <c r="D12" t="n">
-        <v>7.54</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.83</v>
+        <v>11.96</v>
       </c>
       <c r="D13" t="n">
-        <v>6.11</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="14">
@@ -15697,10 +15697,10 @@
         <v>1.4</v>
       </c>
       <c r="C17" t="n">
-        <v>-24.04</v>
+        <v>-15.16</v>
       </c>
       <c r="D17" t="n">
-        <v>4.83</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="18">
@@ -15904,13 +15904,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="n">
-        <v>102.2</v>
+        <v>101.8</v>
       </c>
       <c r="C32" t="n">
-        <v>9.88</v>
+        <v>9.72</v>
       </c>
       <c r="D32" t="n">
-        <v>5.07</v>
+        <v>5.05</v>
       </c>
     </row>
   </sheetData>
@@ -17009,22 +17009,22 @@
         <v>32</v>
       </c>
       <c r="B8" t="n">
-        <v>-24.04</v>
+        <v>-15.16</v>
       </c>
       <c r="C8" t="n">
-        <v>52.43</v>
+        <v>51.43</v>
       </c>
       <c r="D8" t="n">
-        <v>35.74</v>
+        <v>35.14</v>
       </c>
       <c r="E8" t="n">
-        <v>17.29</v>
+        <v>16.98</v>
       </c>
       <c r="F8" t="n">
-        <v>3.44</v>
+        <v>3.31</v>
       </c>
       <c r="G8" t="n">
-        <v>4.83</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="9">
@@ -17423,22 +17423,22 @@
         <v>50</v>
       </c>
       <c r="B26" t="n">
-        <v>34.07</v>
+        <v>11.96</v>
       </c>
       <c r="C26" t="n">
-        <v>41.36</v>
+        <v>29.18</v>
       </c>
       <c r="D26" t="n">
-        <v>55.45</v>
+        <v>46.38</v>
       </c>
       <c r="E26" t="n">
-        <v>35.64</v>
+        <v>30.84</v>
       </c>
       <c r="F26" t="n">
-        <v>16.19</v>
+        <v>14.11</v>
       </c>
       <c r="G26" t="n">
-        <v>7.24</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="27">
@@ -17561,22 +17561,22 @@
         <v>25</v>
       </c>
       <c r="B32" t="n">
-        <v>9.88</v>
+        <v>9.72</v>
       </c>
       <c r="C32" t="n">
-        <v>11.94</v>
+        <v>11.73</v>
       </c>
       <c r="D32" t="n">
-        <v>11.18</v>
+        <v>11.04</v>
       </c>
       <c r="E32" t="n">
-        <v>7.35</v>
+        <v>7.27</v>
       </c>
       <c r="F32" t="n">
-        <v>5.5</v>
+        <v>5.46</v>
       </c>
       <c r="G32" t="n">
-        <v>5.07</v>
+        <v>5.05</v>
       </c>
     </row>
   </sheetData>
@@ -17934,13 +17934,13 @@
         <v>2021</v>
       </c>
       <c r="B25" t="n">
-        <v>93027.93087085</v>
+        <v>92807.10818869</v>
       </c>
       <c r="C25" t="n">
         <v>91806.06006519</v>
       </c>
       <c r="D25" t="n">
-        <v>-1222</v>
+        <v>-1001</v>
       </c>
     </row>
     <row r="26">
@@ -17948,13 +17948,13 @@
         <v>2022</v>
       </c>
       <c r="B26" t="n">
-        <v>102219.15761718</v>
+        <v>101829.10187407</v>
       </c>
       <c r="C26" t="n">
-        <v>113392.65505891</v>
+        <v>113021.56536341</v>
       </c>
       <c r="D26" t="n">
-        <v>11173</v>
+        <v>11192</v>
       </c>
     </row>
   </sheetData>

--- a/summary_file_FY2022_withTotals.xlsx
+++ b/summary_file_FY2022_withTotals.xlsx
@@ -6656,7 +6656,7 @@
         <v>3</v>
       </c>
       <c r="C554" t="n">
-        <v>2700.15</v>
+        <v>2700.24</v>
       </c>
     </row>
     <row r="555">
@@ -6777,7 +6777,7 @@
         <v>14</v>
       </c>
       <c r="C565" t="n">
-        <v>1879.05</v>
+        <v>1886.19</v>
       </c>
     </row>
     <row r="566">
@@ -6898,7 +6898,7 @@
         <v>25</v>
       </c>
       <c r="C576" t="n">
-        <v>104536.91</v>
+        <v>104544.13</v>
       </c>
     </row>
   </sheetData>
@@ -16075,10 +16075,10 @@
         <v>1.9</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.68</v>
+        <v>-4.32</v>
       </c>
       <c r="D11" t="n">
-        <v>7.87</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="12">
@@ -16257,7 +16257,7 @@
         <v>104.5</v>
       </c>
       <c r="C24" t="n">
-        <v>14.15</v>
+        <v>14.16</v>
       </c>
       <c r="D24" t="n">
         <v>5.16</v>
@@ -16535,22 +16535,22 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.68</v>
+        <v>-4.32</v>
       </c>
       <c r="C12" t="n">
-        <v>15.06</v>
+        <v>15.28</v>
       </c>
       <c r="D12" t="n">
-        <v>16.83</v>
+        <v>16.98</v>
       </c>
       <c r="E12" t="n">
-        <v>9.26</v>
+        <v>9.34</v>
       </c>
       <c r="F12" t="n">
-        <v>6.23</v>
+        <v>6.27</v>
       </c>
       <c r="G12" t="n">
-        <v>7.87</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="13">
@@ -16800,7 +16800,7 @@
         <v>8.08</v>
       </c>
       <c r="F23" t="n">
-        <v>6.28</v>
+        <v>6.29</v>
       </c>
       <c r="G23" t="n">
         <v>4.54</v>
@@ -16811,13 +16811,13 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>14.15</v>
+        <v>14.16</v>
       </c>
       <c r="C24" t="n">
         <v>18.36</v>
       </c>
       <c r="D24" t="n">
-        <v>13.15</v>
+        <v>13.16</v>
       </c>
       <c r="E24" t="n">
         <v>11.4</v>
@@ -17951,10 +17951,10 @@
         <v>101829.10187407</v>
       </c>
       <c r="C26" t="n">
-        <v>113021.56536341</v>
+        <v>113028.79108577</v>
       </c>
       <c r="D26" t="n">
-        <v>11192</v>
+        <v>11200</v>
       </c>
     </row>
   </sheetData>
